--- a/individual_case_outputs/avey/308.xlsx
+++ b/individual_case_outputs/avey/308.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>preterm labor</t>
+          <t>braxton hicks</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
